--- a/Marketing/uwm.roomme.xlsx
+++ b/Marketing/uwm.roomme.xlsx
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B77" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="B78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -1222,7 +1222,7 @@
         </is>
       </c>
       <c r="B79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -1232,7 +1232,7 @@
         </is>
       </c>
       <c r="B80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -1242,7 +1242,7 @@
         </is>
       </c>
       <c r="B81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -1252,7 +1252,7 @@
         </is>
       </c>
       <c r="B82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -1262,7 +1262,7 @@
         </is>
       </c>
       <c r="B83" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84">
@@ -1272,7 +1272,7 @@
         </is>
       </c>
       <c r="B84" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85">
@@ -1282,7 +1282,7 @@
         </is>
       </c>
       <c r="B85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="B86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -1312,7 +1312,7 @@
         </is>
       </c>
       <c r="B88" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -1322,7 +1322,7 @@
         </is>
       </c>
       <c r="B89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
@@ -1332,7 +1332,7 @@
         </is>
       </c>
       <c r="B90" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -1342,7 +1342,7 @@
         </is>
       </c>
       <c r="B91" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92">
@@ -1352,7 +1352,7 @@
         </is>
       </c>
       <c r="B92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93">
@@ -1362,7 +1362,7 @@
         </is>
       </c>
       <c r="B93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -1372,7 +1372,7 @@
         </is>
       </c>
       <c r="B94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -1382,7 +1382,7 @@
         </is>
       </c>
       <c r="B95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96">
@@ -1392,7 +1392,7 @@
         </is>
       </c>
       <c r="B96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">

--- a/Marketing/uwm.roomme.xlsx
+++ b/Marketing/uwm.roomme.xlsx
@@ -1402,7 +1402,7 @@
         </is>
       </c>
       <c r="B97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="B98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99">
@@ -1422,7 +1422,7 @@
         </is>
       </c>
       <c r="B99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="B100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B101" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102">
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="B102" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -1462,7 +1462,7 @@
         </is>
       </c>
       <c r="B103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104">
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="B104" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105">
@@ -1482,7 +1482,7 @@
         </is>
       </c>
       <c r="B105" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106">
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="B106" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107">
@@ -1502,7 +1502,7 @@
         </is>
       </c>
       <c r="B107" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108">
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="B108" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109">
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="B109" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110">
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="B110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111">
@@ -1542,7 +1542,7 @@
         </is>
       </c>
       <c r="B111" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112">
@@ -1552,7 +1552,7 @@
         </is>
       </c>
       <c r="B112" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113">
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="B113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114">
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="B114" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B115" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116">
@@ -1592,7 +1592,7 @@
         </is>
       </c>
       <c r="B116" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117">
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B117" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118">
@@ -1612,7 +1612,7 @@
         </is>
       </c>
       <c r="B118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -1622,7 +1622,7 @@
         </is>
       </c>
       <c r="B119" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120">
@@ -1632,7 +1632,7 @@
         </is>
       </c>
       <c r="B120" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121">
@@ -1642,7 +1642,7 @@
         </is>
       </c>
       <c r="B121" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122">
@@ -1652,7 +1652,7 @@
         </is>
       </c>
       <c r="B122" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123">
@@ -1662,7 +1662,7 @@
         </is>
       </c>
       <c r="B123" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124">
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B124" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125">
@@ -1682,7 +1682,7 @@
         </is>
       </c>
       <c r="B125" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126">
@@ -1692,7 +1692,7 @@
         </is>
       </c>
       <c r="B126" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127">
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="B127" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128">
@@ -1712,7 +1712,7 @@
         </is>
       </c>
       <c r="B128" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129">
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B129" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130">
@@ -1732,7 +1732,7 @@
         </is>
       </c>
       <c r="B130" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131">
@@ -1742,7 +1742,7 @@
         </is>
       </c>
       <c r="B131" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132">
@@ -1752,7 +1752,7 @@
         </is>
       </c>
       <c r="B132" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133">
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B133" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134">
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="B134" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135">
@@ -1782,7 +1782,7 @@
         </is>
       </c>
       <c r="B135" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136">
@@ -1792,7 +1792,7 @@
         </is>
       </c>
       <c r="B136" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137">

--- a/Marketing/uwm.roomme.xlsx
+++ b/Marketing/uwm.roomme.xlsx
@@ -1802,7 +1802,7 @@
         </is>
       </c>
       <c r="B137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138">
@@ -1812,7 +1812,7 @@
         </is>
       </c>
       <c r="B138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139">
@@ -1822,7 +1822,7 @@
         </is>
       </c>
       <c r="B139" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140">
@@ -1832,7 +1832,7 @@
         </is>
       </c>
       <c r="B140" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141">
@@ -1842,7 +1842,7 @@
         </is>
       </c>
       <c r="B141" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142">
@@ -1852,7 +1852,7 @@
         </is>
       </c>
       <c r="B142" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B143" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144">
@@ -1872,7 +1872,7 @@
         </is>
       </c>
       <c r="B144" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145">
@@ -1882,7 +1882,7 @@
         </is>
       </c>
       <c r="B145" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146">
@@ -1892,7 +1892,7 @@
         </is>
       </c>
       <c r="B146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147">
@@ -1902,7 +1902,7 @@
         </is>
       </c>
       <c r="B147" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148">
@@ -1912,7 +1912,7 @@
         </is>
       </c>
       <c r="B148" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B149" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -1932,7 +1932,7 @@
         </is>
       </c>
       <c r="B150" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151">
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="B151" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152">
@@ -1952,7 +1952,7 @@
         </is>
       </c>
       <c r="B152" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153">
@@ -1962,7 +1962,7 @@
         </is>
       </c>
       <c r="B153" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154">
@@ -1972,7 +1972,7 @@
         </is>
       </c>
       <c r="B154" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155">
@@ -1982,7 +1982,7 @@
         </is>
       </c>
       <c r="B155" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156">
@@ -1992,7 +1992,7 @@
         </is>
       </c>
       <c r="B156" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157">
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B157" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="B158" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159">
@@ -2022,7 +2022,7 @@
         </is>
       </c>
       <c r="B159" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160">
@@ -2032,7 +2032,7 @@
         </is>
       </c>
       <c r="B160" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161">
@@ -2042,7 +2042,7 @@
         </is>
       </c>
       <c r="B161" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162">
@@ -2052,7 +2052,7 @@
         </is>
       </c>
       <c r="B162" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -2062,7 +2062,7 @@
         </is>
       </c>
       <c r="B163" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164">
@@ -2072,7 +2072,7 @@
         </is>
       </c>
       <c r="B164" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165">
@@ -2082,7 +2082,7 @@
         </is>
       </c>
       <c r="B165" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166">
@@ -2092,7 +2092,7 @@
         </is>
       </c>
       <c r="B166" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167">
@@ -2102,7 +2102,7 @@
         </is>
       </c>
       <c r="B167" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168">
@@ -2112,7 +2112,7 @@
         </is>
       </c>
       <c r="B168" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169">
@@ -2122,7 +2122,7 @@
         </is>
       </c>
       <c r="B169" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170">
@@ -2132,7 +2132,7 @@
         </is>
       </c>
       <c r="B170" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171">
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B171" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="B172" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173">
@@ -2162,7 +2162,7 @@
         </is>
       </c>
       <c r="B173" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174">
@@ -2172,7 +2172,7 @@
         </is>
       </c>
       <c r="B174" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175">
@@ -2182,7 +2182,7 @@
         </is>
       </c>
       <c r="B175" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176">
@@ -2192,7 +2192,7 @@
         </is>
       </c>
       <c r="B176" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177">
@@ -2202,7 +2202,7 @@
         </is>
       </c>
       <c r="B177" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178">
@@ -2212,7 +2212,7 @@
         </is>
       </c>
       <c r="B178" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179">
@@ -2222,7 +2222,7 @@
         </is>
       </c>
       <c r="B179" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180">
@@ -2232,7 +2232,7 @@
         </is>
       </c>
       <c r="B180" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181">
@@ -2242,7 +2242,7 @@
         </is>
       </c>
       <c r="B181" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182">
@@ -2252,7 +2252,7 @@
         </is>
       </c>
       <c r="B182" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183">
@@ -2262,7 +2262,7 @@
         </is>
       </c>
       <c r="B183" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184">
@@ -2272,7 +2272,7 @@
         </is>
       </c>
       <c r="B184" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185">
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B185" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="B186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187">
@@ -2302,7 +2302,7 @@
         </is>
       </c>
       <c r="B187" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188">
@@ -2312,7 +2312,7 @@
         </is>
       </c>
       <c r="B188" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189">
@@ -2322,7 +2322,7 @@
         </is>
       </c>
       <c r="B189" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190">
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="B190" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191">
@@ -2342,7 +2342,7 @@
         </is>
       </c>
       <c r="B191" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192">
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="B192" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193">
@@ -2362,7 +2362,7 @@
         </is>
       </c>
       <c r="B193" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194">
@@ -2372,7 +2372,7 @@
         </is>
       </c>
       <c r="B194" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195">
@@ -2382,7 +2382,7 @@
         </is>
       </c>
       <c r="B195" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196">
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="B196" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197">
@@ -2402,7 +2402,7 @@
         </is>
       </c>
       <c r="B197" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198">
@@ -2412,7 +2412,7 @@
         </is>
       </c>
       <c r="B198" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199">
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B199" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200">
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="B200" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201">
@@ -2442,7 +2442,7 @@
         </is>
       </c>
       <c r="B201" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="202">
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="B202" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="203">
@@ -2462,7 +2462,7 @@
         </is>
       </c>
       <c r="B203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204">
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B204" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="205">
@@ -2482,7 +2482,7 @@
         </is>
       </c>
       <c r="B205" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="206">
@@ -2492,7 +2492,7 @@
         </is>
       </c>
       <c r="B206" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="207">
@@ -2502,7 +2502,7 @@
         </is>
       </c>
       <c r="B207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="208">
@@ -2512,7 +2512,7 @@
         </is>
       </c>
       <c r="B208" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="209">
@@ -2522,7 +2522,7 @@
         </is>
       </c>
       <c r="B209" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="210">
@@ -2532,7 +2532,7 @@
         </is>
       </c>
       <c r="B210" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="211">
@@ -2542,7 +2542,7 @@
         </is>
       </c>
       <c r="B211" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="212">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B212" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="213">
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B213" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214">
@@ -2572,7 +2572,7 @@
         </is>
       </c>
       <c r="B214" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215">
@@ -2582,7 +2582,7 @@
         </is>
       </c>
       <c r="B215" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216">
@@ -2592,7 +2592,7 @@
         </is>
       </c>
       <c r="B216" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="217">
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B217" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="218">
@@ -2612,7 +2612,7 @@
         </is>
       </c>
       <c r="B218" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="219">
@@ -2622,7 +2622,7 @@
         </is>
       </c>
       <c r="B219" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="220">
@@ -2632,7 +2632,7 @@
         </is>
       </c>
       <c r="B220" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221">
@@ -2642,7 +2642,7 @@
         </is>
       </c>
       <c r="B221" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222">
@@ -2652,7 +2652,7 @@
         </is>
       </c>
       <c r="B222" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="223">
@@ -2662,7 +2662,7 @@
         </is>
       </c>
       <c r="B223" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224">
@@ -2672,7 +2672,7 @@
         </is>
       </c>
       <c r="B224" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B225" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226">
@@ -2692,7 +2692,7 @@
         </is>
       </c>
       <c r="B226" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227">
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B227" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="228">
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B228" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229">
@@ -2722,7 +2722,7 @@
         </is>
       </c>
       <c r="B229" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230">
@@ -2732,7 +2732,7 @@
         </is>
       </c>
       <c r="B230" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231">
@@ -2742,7 +2742,7 @@
         </is>
       </c>
       <c r="B231" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="232">
@@ -2752,7 +2752,7 @@
         </is>
       </c>
       <c r="B232" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233">
@@ -2762,7 +2762,7 @@
         </is>
       </c>
       <c r="B233" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234">
@@ -2772,7 +2772,7 @@
         </is>
       </c>
       <c r="B234" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235">
@@ -2782,7 +2782,7 @@
         </is>
       </c>
       <c r="B235" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="236">
@@ -2792,7 +2792,7 @@
         </is>
       </c>
       <c r="B236" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="237">
@@ -2802,7 +2802,7 @@
         </is>
       </c>
       <c r="B237" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238">
@@ -2812,7 +2812,7 @@
         </is>
       </c>
       <c r="B238" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="239">
@@ -2822,7 +2822,7 @@
         </is>
       </c>
       <c r="B239" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240">
@@ -2832,7 +2832,7 @@
         </is>
       </c>
       <c r="B240" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="241">
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B241" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242">
@@ -2852,7 +2852,7 @@
         </is>
       </c>
       <c r="B242" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243">
@@ -2862,7 +2862,7 @@
         </is>
       </c>
       <c r="B243" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244">
@@ -2872,7 +2872,7 @@
         </is>
       </c>
       <c r="B244" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245">
@@ -2882,7 +2882,7 @@
         </is>
       </c>
       <c r="B245" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="246">
@@ -2892,7 +2892,7 @@
         </is>
       </c>
       <c r="B246" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="247">
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B247" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="248">
@@ -2912,7 +2912,7 @@
         </is>
       </c>
       <c r="B248" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249">
@@ -2922,7 +2922,7 @@
         </is>
       </c>
       <c r="B249" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250">
@@ -2932,7 +2932,7 @@
         </is>
       </c>
       <c r="B250" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="251">
@@ -2942,7 +2942,7 @@
         </is>
       </c>
       <c r="B251" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -2952,7 +2952,7 @@
         </is>
       </c>
       <c r="B252" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253">
@@ -2962,7 +2962,7 @@
         </is>
       </c>
       <c r="B253" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="254">
@@ -2972,7 +2972,7 @@
         </is>
       </c>
       <c r="B254" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255">
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B255" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256">
@@ -2992,7 +2992,7 @@
         </is>
       </c>
       <c r="B256" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257">
@@ -3002,7 +3002,7 @@
         </is>
       </c>
       <c r="B257" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258">
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="B258" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259">
@@ -3022,7 +3022,7 @@
         </is>
       </c>
       <c r="B259" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="260">
@@ -3032,7 +3032,7 @@
         </is>
       </c>
       <c r="B260" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="261">
@@ -3042,7 +3042,7 @@
         </is>
       </c>
       <c r="B261" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="262">
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">

--- a/Marketing/uwm.roomme.xlsx
+++ b/Marketing/uwm.roomme.xlsx
@@ -3052,7 +3052,7 @@
         </is>
       </c>
       <c r="B262" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="263">
@@ -3062,7 +3062,7 @@
         </is>
       </c>
       <c r="B263" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="264">
@@ -3072,7 +3072,7 @@
         </is>
       </c>
       <c r="B264" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="265">
@@ -3082,7 +3082,7 @@
         </is>
       </c>
       <c r="B265" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="266">
@@ -3092,7 +3092,7 @@
         </is>
       </c>
       <c r="B266" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="267">
@@ -3102,7 +3102,7 @@
         </is>
       </c>
       <c r="B267" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="268">
@@ -3112,7 +3112,7 @@
         </is>
       </c>
       <c r="B268" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="269">
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B269" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="270">
@@ -3132,7 +3132,7 @@
         </is>
       </c>
       <c r="B270" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271">
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="B271" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272">
@@ -3152,7 +3152,7 @@
         </is>
       </c>
       <c r="B272" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273">
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="B273" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="274">
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="B274" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="275">
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="B275" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="276">
@@ -3192,7 +3192,7 @@
         </is>
       </c>
       <c r="B276" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="277">
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="B277" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278">
@@ -3212,7 +3212,7 @@
         </is>
       </c>
       <c r="B278" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="279">
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="B279" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="280">
@@ -3232,7 +3232,7 @@
         </is>
       </c>
       <c r="B280" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="281">
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="B281" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="282">
@@ -3252,7 +3252,7 @@
         </is>
       </c>
       <c r="B282" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="283">
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B283" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -3272,7 +3272,7 @@
         </is>
       </c>
       <c r="B284" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="285">
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B285" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="286">
@@ -3292,7 +3292,7 @@
         </is>
       </c>
       <c r="B286" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="287">
@@ -3302,7 +3302,7 @@
         </is>
       </c>
       <c r="B287" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288">
@@ -3312,7 +3312,7 @@
         </is>
       </c>
       <c r="B288" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289">
@@ -3322,7 +3322,7 @@
         </is>
       </c>
       <c r="B289" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290">
@@ -3332,7 +3332,7 @@
         </is>
       </c>
       <c r="B290" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="291">
@@ -3342,7 +3342,7 @@
         </is>
       </c>
       <c r="B291" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="292">
@@ -3352,7 +3352,7 @@
         </is>
       </c>
       <c r="B292" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="293">
@@ -3362,7 +3362,7 @@
         </is>
       </c>
       <c r="B293" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="294">
@@ -3372,7 +3372,7 @@
         </is>
       </c>
       <c r="B294" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="295">
@@ -3382,7 +3382,7 @@
         </is>
       </c>
       <c r="B295" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="296">
@@ -3392,7 +3392,7 @@
         </is>
       </c>
       <c r="B296" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297">
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B297" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298">
@@ -3412,7 +3412,7 @@
         </is>
       </c>
       <c r="B298" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299">
@@ -3422,7 +3422,7 @@
         </is>
       </c>
       <c r="B299" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300">
@@ -3432,7 +3432,7 @@
         </is>
       </c>
       <c r="B300" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301">
@@ -3442,7 +3442,7 @@
         </is>
       </c>
       <c r="B301" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302">
@@ -3452,7 +3452,7 @@
         </is>
       </c>
       <c r="B302" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303">
@@ -3462,7 +3462,7 @@
         </is>
       </c>
       <c r="B303" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304">
@@ -3472,7 +3472,7 @@
         </is>
       </c>
       <c r="B304" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305">
@@ -3482,7 +3482,7 @@
         </is>
       </c>
       <c r="B305" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306">
@@ -3492,7 +3492,7 @@
         </is>
       </c>
       <c r="B306" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="307">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B307" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="308">
@@ -3512,7 +3512,7 @@
         </is>
       </c>
       <c r="B308" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="309">
@@ -3522,7 +3522,7 @@
         </is>
       </c>
       <c r="B309" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="310">
@@ -3532,7 +3532,7 @@
         </is>
       </c>
       <c r="B310" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="311">
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B311" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="312">
@@ -3552,7 +3552,7 @@
         </is>
       </c>
       <c r="B312" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="313">
@@ -3562,7 +3562,7 @@
         </is>
       </c>
       <c r="B313" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="314">
@@ -3572,7 +3572,7 @@
         </is>
       </c>
       <c r="B314" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315">
@@ -3582,7 +3582,7 @@
         </is>
       </c>
       <c r="B315" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316">
@@ -3592,7 +3592,7 @@
         </is>
       </c>
       <c r="B316" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317">
@@ -3602,7 +3602,7 @@
         </is>
       </c>
       <c r="B317" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318">
@@ -3612,7 +3612,7 @@
         </is>
       </c>
       <c r="B318" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="319">
@@ -3622,7 +3622,7 @@
         </is>
       </c>
       <c r="B319" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320">
@@ -3632,7 +3632,7 @@
         </is>
       </c>
       <c r="B320" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="321">
@@ -3642,7 +3642,7 @@
         </is>
       </c>
       <c r="B321" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322">
@@ -3652,7 +3652,7 @@
         </is>
       </c>
       <c r="B322" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="323">
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B323" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="324">
@@ -3672,7 +3672,7 @@
         </is>
       </c>
       <c r="B324" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="325">
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B325" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="326">
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="B326" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="327">
@@ -3702,7 +3702,7 @@
         </is>
       </c>
       <c r="B327" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -3712,7 +3712,7 @@
         </is>
       </c>
       <c r="B328" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="329">
@@ -3722,7 +3722,7 @@
         </is>
       </c>
       <c r="B329" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="330">
@@ -3732,7 +3732,7 @@
         </is>
       </c>
       <c r="B330" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331">
@@ -3742,7 +3742,7 @@
         </is>
       </c>
       <c r="B331" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332">
@@ -3752,7 +3752,7 @@
         </is>
       </c>
       <c r="B332" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -3762,7 +3762,7 @@
         </is>
       </c>
       <c r="B333" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="334">
@@ -3772,7 +3772,7 @@
         </is>
       </c>
       <c r="B334" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="335">
@@ -3782,7 +3782,7 @@
         </is>
       </c>
       <c r="B335" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="336">
@@ -3792,7 +3792,7 @@
         </is>
       </c>
       <c r="B336" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="337">
@@ -3802,7 +3802,7 @@
         </is>
       </c>
       <c r="B337" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="338">
@@ -3812,7 +3812,7 @@
         </is>
       </c>
       <c r="B338" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="339">
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B339" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340">
@@ -3832,7 +3832,7 @@
         </is>
       </c>
       <c r="B340" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="341">
@@ -3842,7 +3842,7 @@
         </is>
       </c>
       <c r="B341" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="342">
@@ -3852,7 +3852,7 @@
         </is>
       </c>
       <c r="B342" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="343">
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="B343" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="344">
@@ -3872,7 +3872,7 @@
         </is>
       </c>
       <c r="B344" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345">
@@ -3882,7 +3882,7 @@
         </is>
       </c>
       <c r="B345" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346">
@@ -3892,7 +3892,7 @@
         </is>
       </c>
       <c r="B346" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347">
@@ -3902,7 +3902,7 @@
         </is>
       </c>
       <c r="B347" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="348">
@@ -3912,7 +3912,7 @@
         </is>
       </c>
       <c r="B348" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="349">
@@ -3922,7 +3922,7 @@
         </is>
       </c>
       <c r="B349" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="350">
@@ -3932,7 +3932,7 @@
         </is>
       </c>
       <c r="B350" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="351">
@@ -3942,7 +3942,7 @@
         </is>
       </c>
       <c r="B351" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="352">
@@ -3952,7 +3952,7 @@
         </is>
       </c>
       <c r="B352" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="353">
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B353" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="354">
@@ -3972,7 +3972,7 @@
         </is>
       </c>
       <c r="B354" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="355">
@@ -3982,7 +3982,7 @@
         </is>
       </c>
       <c r="B355" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="356">
@@ -3992,7 +3992,7 @@
         </is>
       </c>
       <c r="B356" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="357">
@@ -4002,7 +4002,7 @@
         </is>
       </c>
       <c r="B357" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="358">
@@ -4012,7 +4012,7 @@
         </is>
       </c>
       <c r="B358" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="359">
@@ -4022,7 +4022,7 @@
         </is>
       </c>
       <c r="B359" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360">
@@ -4032,7 +4032,7 @@
         </is>
       </c>
       <c r="B360" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B361" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362">
@@ -4052,7 +4052,7 @@
         </is>
       </c>
       <c r="B362" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="363">
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="B363" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="364">
@@ -4072,7 +4072,7 @@
         </is>
       </c>
       <c r="B364" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="365">
@@ -4082,7 +4082,7 @@
         </is>
       </c>
       <c r="B365" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="366">
@@ -4092,7 +4092,7 @@
         </is>
       </c>
       <c r="B366" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="367">
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B367" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="368">
@@ -4112,7 +4112,7 @@
         </is>
       </c>
       <c r="B368" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="369">
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="B369" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="370">
@@ -4132,7 +4132,7 @@
         </is>
       </c>
       <c r="B370" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="371">
@@ -4142,7 +4142,7 @@
         </is>
       </c>
       <c r="B371" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="372">
@@ -4152,7 +4152,7 @@
         </is>
       </c>
       <c r="B372" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="373">
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="B373" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374">
@@ -4172,7 +4172,7 @@
         </is>
       </c>
       <c r="B374" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375">
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="B375" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376">
@@ -4192,7 +4192,7 @@
         </is>
       </c>
       <c r="B376" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="377">
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="B377" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="378">
@@ -4212,7 +4212,7 @@
         </is>
       </c>
       <c r="B378" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="379">
@@ -4222,7 +4222,7 @@
         </is>
       </c>
       <c r="B379" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="380">
@@ -4232,7 +4232,7 @@
         </is>
       </c>
       <c r="B380" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B381" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="382">
@@ -4252,7 +4252,7 @@
         </is>
       </c>
       <c r="B382" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="383">
@@ -4262,7 +4262,7 @@
         </is>
       </c>
       <c r="B383" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384">
@@ -4272,7 +4272,7 @@
         </is>
       </c>
       <c r="B384" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="385">
@@ -4282,7 +4282,7 @@
         </is>
       </c>
       <c r="B385" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="386">
@@ -4292,7 +4292,7 @@
         </is>
       </c>
       <c r="B386" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -4302,7 +4302,7 @@
         </is>
       </c>
       <c r="B387" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388">
@@ -4312,7 +4312,7 @@
         </is>
       </c>
       <c r="B388" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389">
@@ -4322,7 +4322,7 @@
         </is>
       </c>
       <c r="B389" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390">
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B390" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="391">
@@ -4342,7 +4342,7 @@
         </is>
       </c>
       <c r="B391" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="392">
@@ -4352,7 +4352,7 @@
         </is>
       </c>
       <c r="B392" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="393">
@@ -4362,7 +4362,7 @@
         </is>
       </c>
       <c r="B393" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="394">
@@ -4372,7 +4372,7 @@
         </is>
       </c>
       <c r="B394" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="395">
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B395" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396">
@@ -4392,7 +4392,7 @@
         </is>
       </c>
       <c r="B396" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397">
@@ -4402,7 +4402,7 @@
         </is>
       </c>
       <c r="B397" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398">
@@ -4412,7 +4412,7 @@
         </is>
       </c>
       <c r="B398" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399">
@@ -4422,7 +4422,7 @@
         </is>
       </c>
       <c r="B399" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400">
@@ -4432,7 +4432,7 @@
         </is>
       </c>
       <c r="B400" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401">
@@ -4442,7 +4442,7 @@
         </is>
       </c>
       <c r="B401" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402">

--- a/Marketing/uwm.roomme.xlsx
+++ b/Marketing/uwm.roomme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B543"/>
+  <dimension ref="A1:B481"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,7 +448,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>addie.jb.4</t>
+          <t>numberonefucknigga</t>
         </is>
       </c>
       <c r="B2" t="b">
@@ -458,7 +458,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>jammehblack12</t>
+          <t>yung.wavy</t>
         </is>
       </c>
       <c r="B3" t="b">
@@ -468,7 +468,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>_ankitaangel_123</t>
+          <t>finnnsse_kid</t>
         </is>
       </c>
       <c r="B4" t="b">
@@ -478,7 +478,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>lplouffe57</t>
+          <t>milaaa2023</t>
         </is>
       </c>
       <c r="B5" t="b">
@@ -488,7 +488,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>alyssiamckkk</t>
+          <t>sofie.gi</t>
         </is>
       </c>
       <c r="B6" t="b">
@@ -498,7 +498,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>m1asiaaa</t>
+          <t>sebi_ign</t>
         </is>
       </c>
       <c r="B7" t="b">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>sethkiekhaefer</t>
+          <t>moussa_cama10</t>
         </is>
       </c>
       <c r="B8" t="b">
@@ -518,7 +518,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>g.vang8</t>
+          <t>solowniyah</t>
         </is>
       </c>
       <c r="B9" t="b">
@@ -528,7 +528,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>vridish.gajase1ab1ab</t>
+          <t>sdfkhsdkjfh</t>
         </is>
       </c>
       <c r="B10" t="b">
@@ -538,7 +538,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>janet.parise</t>
+          <t>oppermanb_12</t>
         </is>
       </c>
       <c r="B11" t="b">
@@ -548,7 +548,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>skellybabyatuwm</t>
+          <t>lifesanartpiece</t>
         </is>
       </c>
       <c r="B12" t="b">
@@ -558,7 +558,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>marinkfleming</t>
+          <t>jerseerae</t>
         </is>
       </c>
       <c r="B13" t="b">
@@ -568,7 +568,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>thicklikecoldgrits.bri</t>
+          <t>selahifrost</t>
         </is>
       </c>
       <c r="B14" t="b">
@@ -578,7 +578,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dj_drew05</t>
+          <t>_luke_d_b</t>
         </is>
       </c>
       <c r="B15" t="b">
@@ -588,7 +588,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>amy_roxana20</t>
+          <t>kelsi.fagan</t>
         </is>
       </c>
       <c r="B16" t="b">
@@ -598,7 +598,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>spideyost</t>
+          <t>v.with.a.k</t>
         </is>
       </c>
       <c r="B17" t="b">
@@ -608,7 +608,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>annakupsh</t>
+          <t>charlottee4898</t>
         </is>
       </c>
       <c r="B18" t="b">
@@ -618,7 +618,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>andrew_reindl_</t>
+          <t>beim_87</t>
         </is>
       </c>
       <c r="B19" t="b">
@@ -628,7 +628,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>chloeariellee</t>
+          <t>max.maternowski</t>
         </is>
       </c>
       <c r="B20" t="b">
@@ -638,7 +638,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>emily._.tamayo</t>
+          <t>will_guerrer.o</t>
         </is>
       </c>
       <c r="B21" t="b">
@@ -648,7 +648,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>sofie.gi</t>
+          <t>eddootw</t>
         </is>
       </c>
       <c r="B22" t="b">
@@ -658,7 +658,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>kinya6622</t>
+          <t>aylawayla07</t>
         </is>
       </c>
       <c r="B23" t="b">
@@ -668,7 +668,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>_af.05_</t>
+          <t>adam.schmoeker</t>
         </is>
       </c>
       <c r="B24" t="b">
@@ -678,7 +678,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>simaqian64</t>
+          <t>_1_am_who_1_am_</t>
         </is>
       </c>
       <c r="B25" t="b">
@@ -688,7 +688,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>maakobgrinat3a7ec</t>
+          <t>mackenzieswan27</t>
         </is>
       </c>
       <c r="B26" t="b">
@@ -698,7 +698,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>yytre.yu</t>
+          <t>grace_sieckman</t>
         </is>
       </c>
       <c r="B27" t="b">
@@ -708,7 +708,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>laurenalburg</t>
+          <t>mke_pdt</t>
         </is>
       </c>
       <c r="B28" t="b">
@@ -718,7 +718,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>oscarroy918</t>
+          <t>elijah_rauter</t>
         </is>
       </c>
       <c r="B29" t="b">
@@ -728,7 +728,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>jesusgar1807</t>
+          <t>amburger654</t>
         </is>
       </c>
       <c r="B30" t="b">
@@ -738,7 +738,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>joey_k.742</t>
+          <t>runway_mari</t>
         </is>
       </c>
       <c r="B31" t="b">
@@ -748,7 +748,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>will_guerrer.o</t>
+          <t>madison.foth</t>
         </is>
       </c>
       <c r="B32" t="b">
@@ -758,7 +758,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>anne.van39</t>
+          <t>0tansaral0</t>
         </is>
       </c>
       <c r="B33" t="b">
@@ -768,7 +768,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>minna.leighh</t>
+          <t>alinavenuslina</t>
         </is>
       </c>
       <c r="B34" t="b">
@@ -778,7 +778,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>_kermitissexy_</t>
+          <t>matt2heavy</t>
         </is>
       </c>
       <c r="B35" t="b">
@@ -788,7 +788,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>natalie.wooood</t>
+          <t>drako_re</t>
         </is>
       </c>
       <c r="B36" t="b">
@@ -798,7 +798,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>kristian_gomez04</t>
+          <t>janae.brii</t>
         </is>
       </c>
       <c r="B37" t="b">
@@ -808,7 +808,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>liz.nuernberger</t>
+          <t>abi.heiges</t>
         </is>
       </c>
       <c r="B38" t="b">
@@ -818,7 +818,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>its.anzaa</t>
+          <t>celinenarekul</t>
         </is>
       </c>
       <c r="B39" t="b">
@@ -828,7 +828,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>conorwatke</t>
+          <t>josh.librizzi</t>
         </is>
       </c>
       <c r="B40" t="b">
@@ -838,7 +838,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>save_animal_rescue_home</t>
+          <t>jbabler55</t>
         </is>
       </c>
       <c r="B41" t="b">
@@ -848,7 +848,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>_its_kim_005</t>
+          <t>kinley.hq</t>
         </is>
       </c>
       <c r="B42" t="b">
@@ -858,7 +858,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>drako_re</t>
+          <t>man.man504</t>
         </is>
       </c>
       <c r="B43" t="b">
@@ -868,7 +868,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ethankorea3</t>
+          <t>6ng.t36_</t>
         </is>
       </c>
       <c r="B44" t="b">
@@ -878,7 +878,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>kelsi.fagan</t>
+          <t>gbrielgonzalez34</t>
         </is>
       </c>
       <c r="B45" t="b">
@@ -888,7 +888,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>ray.abreu30</t>
+          <t>alexatrejo_05</t>
         </is>
       </c>
       <c r="B46" t="b">
@@ -898,7 +898,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>_fraserd.fmv</t>
+          <t>iamdjkb</t>
         </is>
       </c>
       <c r="B47" t="b">
@@ -908,7 +908,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>myahhhh25</t>
+          <t>_af.05_</t>
         </is>
       </c>
       <c r="B48" t="b">
@@ -918,7 +918,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>pearlofsea367</t>
+          <t>bhartz___</t>
         </is>
       </c>
       <c r="B49" t="b">
@@ -928,7 +928,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>declan.dahm_</t>
+          <t>jesusgar1807</t>
         </is>
       </c>
       <c r="B50" t="b">
@@ -938,7 +938,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>karleighconradt</t>
+          <t>jerryiscool1406</t>
         </is>
       </c>
       <c r="B51" t="b">
@@ -948,7 +948,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>deborahyoungipylcssxeg</t>
+          <t>karishmad_999</t>
         </is>
       </c>
       <c r="B52" t="b">
@@ -958,7 +958,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>sixwafflecats</t>
+          <t>dmyuvyy</t>
         </is>
       </c>
       <c r="B53" t="b">
@@ -968,7 +968,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>_.jareck</t>
+          <t>reymundosolisjr</t>
         </is>
       </c>
       <c r="B54" t="b">
@@ -978,7 +978,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>__.sammyt.__</t>
+          <t>cornm.aze</t>
         </is>
       </c>
       <c r="B55" t="b">
@@ -988,7 +988,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>timonicaa</t>
+          <t>hadassahwarner</t>
         </is>
       </c>
       <c r="B56" t="b">
@@ -998,7 +998,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>cooper__lefebvre</t>
+          <t>allisutti</t>
         </is>
       </c>
       <c r="B57" t="b">
@@ -1008,7 +1008,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>tlgbadger</t>
+          <t>soliiisanchez</t>
         </is>
       </c>
       <c r="B58" t="b">
@@ -1018,7 +1018,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>king_jay.jayy</t>
+          <t>_zachblank</t>
         </is>
       </c>
       <c r="B59" t="b">
@@ -1028,7 +1028,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>olivia_levia9348</t>
+          <t>steelie_stried</t>
         </is>
       </c>
       <c r="B60" t="b">
@@ -1038,7 +1038,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>dylanperez004</t>
+          <t>kaelyn.92304</t>
         </is>
       </c>
       <c r="B61" t="b">
@@ -1048,7 +1048,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>maniclete</t>
+          <t>jessica.auld.7906</t>
         </is>
       </c>
       <c r="B62" t="b">
@@ -1058,7 +1058,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>quinn_pitz_4</t>
+          <t>taylor_vanroy</t>
         </is>
       </c>
       <c r="B63" t="b">
@@ -1068,7 +1068,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>iwfl0130</t>
+          <t>ty._smithh</t>
         </is>
       </c>
       <c r="B64" t="b">
@@ -1078,7 +1078,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>jsenn3422</t>
+          <t>myaa._.aa</t>
         </is>
       </c>
       <c r="B65" t="b">
@@ -1088,7 +1088,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>yesica_villa_</t>
+          <t>annakupsh</t>
         </is>
       </c>
       <c r="B66" t="b">
@@ -1098,7 +1098,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>jadesaenghoi</t>
+          <t>addie.jb.4</t>
         </is>
       </c>
       <c r="B67" t="b">
@@ -1108,7 +1108,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>thouxanban1os</t>
+          <t>liam_carroll36</t>
         </is>
       </c>
       <c r="B68" t="b">
@@ -1118,7 +1118,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>freshfrosh_</t>
+          <t>itsnas.c</t>
         </is>
       </c>
       <c r="B69" t="b">
@@ -1128,7 +1128,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>boyapatipraneel</t>
+          <t>nola.173</t>
         </is>
       </c>
       <c r="B70" t="b">
@@ -1138,7 +1138,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>_bell11p31351251</t>
+          <t>carolyn_esswein</t>
         </is>
       </c>
       <c r="B71" t="b">
@@ -1148,7 +1148,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>ahmadsalhab0</t>
+          <t>jake_detoro</t>
         </is>
       </c>
       <c r="B72" t="b">
@@ -1158,7 +1158,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>manzo_arianna</t>
+          <t>charles___albert</t>
         </is>
       </c>
       <c r="B73" t="b">
@@ -1168,7 +1168,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>jessica.auld.7906</t>
+          <t>mke.juan_</t>
         </is>
       </c>
       <c r="B74" t="b">
@@ -1178,7 +1178,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>metr3889</t>
+          <t>a.usman17</t>
         </is>
       </c>
       <c r="B75" t="b">
@@ -1188,7 +1188,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>_nagwaa</t>
+          <t>yoesmarie_r</t>
         </is>
       </c>
       <c r="B76" t="b">
@@ -1198,7 +1198,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>o_shay_sr</t>
+          <t>mad4noww</t>
         </is>
       </c>
       <c r="B77" t="b">
@@ -1208,7 +1208,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>milaaa2023</t>
+          <t>gracebergeron9</t>
         </is>
       </c>
       <c r="B78" t="b">
@@ -1218,7 +1218,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>_____.afn6682296</t>
+          <t>414cdub</t>
         </is>
       </c>
       <c r="B79" t="b">
@@ -1228,7 +1228,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>briannatuzinkiewicz</t>
+          <t>vinniee.p</t>
         </is>
       </c>
       <c r="B80" t="b">
@@ -1238,7 +1238,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>amariee444</t>
+          <t>sofiarosesandoval</t>
         </is>
       </c>
       <c r="B81" t="b">
@@ -1248,7 +1248,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>martin_m.17</t>
+          <t>kinya6622</t>
         </is>
       </c>
       <c r="B82" t="b">
@@ -1258,7 +1258,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>cerra_dogs_shelter</t>
+          <t>dg90605630</t>
         </is>
       </c>
       <c r="B83" t="b">
@@ -1268,7 +1268,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>giamattolfa</t>
+          <t>_0maxywaxy0_</t>
         </is>
       </c>
       <c r="B84" t="b">
@@ -1278,7 +1278,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>atx_brayan18</t>
+          <t>giogarciapaz</t>
         </is>
       </c>
       <c r="B85" t="b">
@@ -1288,7 +1288,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>fredjohnsonthefourth</t>
+          <t>handsomehoundvintage</t>
         </is>
       </c>
       <c r="B86" t="b">
@@ -1298,7 +1298,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>radagromova2215815</t>
+          <t>laura.goba</t>
         </is>
       </c>
       <c r="B87" t="b">
@@ -1308,7 +1308,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>marisroth_45</t>
+          <t>vette.destiny</t>
         </is>
       </c>
       <c r="B88" t="b">
@@ -1318,7 +1318,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>p_.z14</t>
+          <t>mojomke</t>
         </is>
       </c>
       <c r="B89" t="b">
@@ -1328,7 +1328,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>willliam.sorse</t>
+          <t>ayalajr.aurelio</t>
         </is>
       </c>
       <c r="B90" t="b">
@@ -1338,7 +1338,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>antoarriagadab</t>
+          <t>leo.parkkkk</t>
         </is>
       </c>
       <c r="B91" t="b">
@@ -1348,7 +1348,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>caro.lynemartha</t>
+          <t>sophie_koronkowski</t>
         </is>
       </c>
       <c r="B92" t="b">
@@ -1358,7 +1358,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>laauurreenn.h</t>
+          <t>idah2246</t>
         </is>
       </c>
       <c r="B93" t="b">
@@ -1368,7 +1368,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>mohith_kumar__05</t>
+          <t>amariiee04</t>
         </is>
       </c>
       <c r="B94" t="b">
@@ -1378,7 +1378,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>finnnsse_kid</t>
+          <t>amber.j887</t>
         </is>
       </c>
       <c r="B95" t="b">
@@ -1388,7 +1388,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>lily_sook</t>
+          <t>freshfrosh_</t>
         </is>
       </c>
       <c r="B96" t="b">
@@ -1398,7 +1398,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>laylam.ousseini</t>
+          <t>alyssa_amo_</t>
         </is>
       </c>
       <c r="B97" t="b">
@@ -1408,7 +1408,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>53209_bigreese</t>
+          <t>diegoditzler</t>
         </is>
       </c>
       <c r="B98" t="b">
@@ -1418,7 +1418,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>bella.carmona10</t>
+          <t>_nagwaa</t>
         </is>
       </c>
       <c r="B99" t="b">
@@ -1428,7 +1428,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>chernombah1992</t>
+          <t>manzo_arianna</t>
         </is>
       </c>
       <c r="B100" t="b">
@@ -1438,7 +1438,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>ezrasuxx</t>
+          <t>uwm_parties</t>
         </is>
       </c>
       <c r="B101" t="b">
@@ -1448,7 +1448,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>amarii05_</t>
+          <t>rachelrae57</t>
         </is>
       </c>
       <c r="B102" t="b">
@@ -1458,7 +1458,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>gracebergeron9</t>
+          <t>lillybystrek</t>
         </is>
       </c>
       <c r="B103" t="b">
@@ -1468,7 +1468,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>mobee21</t>
+          <t>the0nly.niahhhh</t>
         </is>
       </c>
       <c r="B104" t="b">
@@ -1478,7 +1478,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>sam.schmidt1</t>
+          <t>_.yannap</t>
         </is>
       </c>
       <c r="B105" t="b">
@@ -1488,7 +1488,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>_nell_doitall_</t>
+          <t>conorwatke</t>
         </is>
       </c>
       <c r="B106" t="b">
@@ -1498,7 +1498,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>emily_haseman</t>
+          <t>congolese_queen1</t>
         </is>
       </c>
       <c r="B107" t="b">
@@ -1508,7 +1508,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>kayla.bransted</t>
+          <t>vianney.ph</t>
         </is>
       </c>
       <c r="B108" t="b">
@@ -1518,7 +1518,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>sdfkhsdkjfh</t>
+          <t>lewisville34</t>
         </is>
       </c>
       <c r="B109" t="b">
@@ -1528,7 +1528,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>grace_sieckman</t>
+          <t>reallorihouse</t>
         </is>
       </c>
       <c r="B110" t="b">
@@ -1538,7 +1538,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>ethan_yang.00</t>
+          <t>dj_drew05</t>
         </is>
       </c>
       <c r="B111" t="b">
@@ -1548,7 +1548,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>chases.gf</t>
+          <t>calen_shackleford</t>
         </is>
       </c>
       <c r="B112" t="b">
@@ -1558,7 +1558,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>andrewking1252</t>
+          <t>ocarmona9</t>
         </is>
       </c>
       <c r="B113" t="b">
@@ -1568,7 +1568,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>lu.ciaarellano</t>
+          <t>3xclusively_</t>
         </is>
       </c>
       <c r="B114" t="b">
@@ -1578,7 +1578,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>lollycakes712</t>
+          <t>haekkuuna_mattaetta</t>
         </is>
       </c>
       <c r="B115" t="b">
@@ -1588,7 +1588,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>graceh178</t>
+          <t>daannagarcia</t>
         </is>
       </c>
       <c r="B116" t="b">
@@ -1598,7 +1598,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>ave.norm</t>
+          <t>juliakotlarzz</t>
         </is>
       </c>
       <c r="B117" t="b">
@@ -1608,7 +1608,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>schuppertrobert</t>
+          <t>jacksonjanke_</t>
         </is>
       </c>
       <c r="B118" t="b">
@@ -1618,7 +1618,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>linah_lucas32</t>
+          <t>m1asiaaa</t>
         </is>
       </c>
       <c r="B119" t="b">
@@ -1628,7 +1628,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>quinn.daczka</t>
+          <t>ave.norm</t>
         </is>
       </c>
       <c r="B120" t="b">
@@ -1638,7 +1638,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>matt2heavy</t>
+          <t>elliana.scharrer</t>
         </is>
       </c>
       <c r="B121" t="b">
@@ -1648,7 +1648,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>lajunceau04</t>
+          <t>nahisprettyokay</t>
         </is>
       </c>
       <c r="B122" t="b">
@@ -1658,7 +1658,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>vivh.itvorahmaca6b395</t>
+          <t>avery.robertss</t>
         </is>
       </c>
       <c r="B123" t="b">
@@ -1668,7 +1668,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>_____.white5ond.__</t>
+          <t>littlerunner1234</t>
         </is>
       </c>
       <c r="B124" t="b">
@@ -1678,7 +1678,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>d0llverse</t>
+          <t>grabbaloot</t>
         </is>
       </c>
       <c r="B125" t="b">
@@ -1688,7 +1688,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>weirdobella_13</t>
+          <t>nathan_osa</t>
         </is>
       </c>
       <c r="B126" t="b">
@@ -1698,7 +1698,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>mr.imhimeman</t>
+          <t>riordanda240</t>
         </is>
       </c>
       <c r="B127" t="b">
@@ -1708,7 +1708,7 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>tashah._</t>
+          <t>boyapatipraneel</t>
         </is>
       </c>
       <c r="B128" t="b">
@@ -1718,7 +1718,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>colin_petschar_sarup</t>
+          <t>izzie__lesak</t>
         </is>
       </c>
       <c r="B129" t="b">
@@ -1728,7 +1728,7 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>kinley.hq</t>
+          <t>breeneauu</t>
         </is>
       </c>
       <c r="B130" t="b">
@@ -1738,7 +1738,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>ally4life12</t>
+          <t>k.eggers35</t>
         </is>
       </c>
       <c r="B131" t="b">
@@ -1748,2707 +1748,2707 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>reymundosolisjr</t>
+          <t>kara.loeffelholz</t>
         </is>
       </c>
       <c r="B132" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>pugh.izzy</t>
+          <t>kristyy1975</t>
         </is>
       </c>
       <c r="B133" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>jasonmooreqrhpvntmjz</t>
+          <t>mohith_kumar__05</t>
         </is>
       </c>
       <c r="B134" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>pjt_prima</t>
+          <t>l_klotz66</t>
         </is>
       </c>
       <c r="B135" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>liam_carroll36</t>
+          <t>_aneesahernandez</t>
         </is>
       </c>
       <c r="B136" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>adam.schmoeker</t>
+          <t>aurorakapitz</t>
         </is>
       </c>
       <c r="B137" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>josh.librizzi</t>
+          <t>dia.savard</t>
         </is>
       </c>
       <c r="B138" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>allisutti</t>
+          <t>anafloress88</t>
         </is>
       </c>
       <c r="B139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>izzie__lesak</t>
+          <t>declan.dahm_</t>
         </is>
       </c>
       <c r="B140" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>that_lifted5.9</t>
+          <t>naomi.b.888</t>
         </is>
       </c>
       <c r="B141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>storyoftriumphh</t>
+          <t>simtwoway1</t>
         </is>
       </c>
       <c r="B142" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>husscody</t>
+          <t>maggie.johnson111</t>
         </is>
       </c>
       <c r="B143" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>cole.beimborn</t>
+          <t>asianboi_cam</t>
         </is>
       </c>
       <c r="B144" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>kyle_meyer12</t>
+          <t>trippie_twon</t>
         </is>
       </c>
       <c r="B145" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>imdeuceee</t>
+          <t>tonney.spence</t>
         </is>
       </c>
       <c r="B146" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>reni_rod</t>
+          <t>kateastrophe23</t>
         </is>
       </c>
       <c r="B147" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>kendrahttps</t>
+          <t>alexisguerrerooo</t>
         </is>
       </c>
       <c r="B148" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vianney.ph</t>
+          <t>kyle_meyer12</t>
         </is>
       </c>
       <c r="B149" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>_.__tbjc69727243</t>
+          <t>rose.lemerande</t>
         </is>
       </c>
       <c r="B150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>ramao_29</t>
+          <t>sadie_stern7</t>
         </is>
       </c>
       <c r="B151" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>cardennoah</t>
+          <t>o.livii</t>
         </is>
       </c>
       <c r="B152" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>thee_marionette</t>
+          <t>machokimchiman</t>
         </is>
       </c>
       <c r="B153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>_samanthamarie1</t>
+          <t>taylor.lopatka</t>
         </is>
       </c>
       <c r="B154" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>franklin0o1</t>
+          <t>armon_ashford</t>
         </is>
       </c>
       <c r="B155" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>yoesmarie_r</t>
+          <t>__.sammyt.__</t>
         </is>
       </c>
       <c r="B156" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>numberonefucknigga</t>
+          <t>nickhogan72</t>
         </is>
       </c>
       <c r="B157" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>schulz_ava</t>
+          <t>jaylin_le0na</t>
         </is>
       </c>
       <c r="B158" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>e9coco</t>
+          <t>nhoch_</t>
         </is>
       </c>
       <c r="B159" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>dani21_65</t>
+          <t>simaqian64</t>
         </is>
       </c>
       <c r="B160" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>ari.annaaaa._</t>
+          <t>lesleyy.rodriguez</t>
         </is>
       </c>
       <c r="B161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>saturnportale</t>
+          <t>caro.lynemartha</t>
         </is>
       </c>
       <c r="B162" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>taylor.lopatka</t>
+          <t>zahara_dessert444</t>
         </is>
       </c>
       <c r="B163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>josie__olsen</t>
+          <t>yesica_villa_</t>
         </is>
       </c>
       <c r="B164" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>gabs_42705</t>
+          <t>owen.nixon24</t>
         </is>
       </c>
       <c r="B165" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>lillybystrek</t>
+          <t>joslynlee15</t>
         </is>
       </c>
       <c r="B166" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>cks1928</t>
+          <t>janet.parise</t>
         </is>
       </c>
       <c r="B167" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>nola.173</t>
+          <t>ke.ke3957</t>
         </is>
       </c>
       <c r="B168" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>calen_shackleford</t>
+          <t>liam._neary</t>
         </is>
       </c>
       <c r="B169" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>carla_fede3</t>
+          <t>alexsolorzano93</t>
         </is>
       </c>
       <c r="B170" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>tremanstamps</t>
+          <t>sorooshabiazi</t>
         </is>
       </c>
       <c r="B171" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>amelia_arndt_sarup_</t>
+          <t>jude_aldahshan</t>
         </is>
       </c>
       <c r="B172" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>bharatsingh__98tey</t>
+          <t>myahhhh25</t>
         </is>
       </c>
       <c r="B173" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>cameron_flannick</t>
+          <t>boltrador</t>
         </is>
       </c>
       <c r="B174" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>alexatrejo_05</t>
+          <t>pearlofsea367</t>
         </is>
       </c>
       <c r="B175" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>celinenarekul</t>
+          <t>madolla23</t>
         </is>
       </c>
       <c r="B176" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>ameerah.blevins</t>
+          <t>midnight_sunrise9</t>
         </is>
       </c>
       <c r="B177" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>congolese_queen1</t>
+          <t>sophiasangabriel_</t>
         </is>
       </c>
       <c r="B178" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>annahellmannn</t>
+          <t>kas_jatta</t>
         </is>
       </c>
       <c r="B179" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>coltonczubs</t>
+          <t>schulz_ava</t>
         </is>
       </c>
       <c r="B180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>m.o.e_tru</t>
+          <t>anne.van39</t>
         </is>
       </c>
       <c r="B181" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>sadie_stern7</t>
+          <t>isabellg06</t>
         </is>
       </c>
       <c r="B182" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>gavin.rehberg</t>
+          <t>angelinarose1122023</t>
         </is>
       </c>
       <c r="B183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>armon_ashford</t>
+          <t>ahmadsalhab0</t>
         </is>
       </c>
       <c r="B184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>atony2223</t>
+          <t>josie__olsen</t>
         </is>
       </c>
       <c r="B185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>rion.zeneli</t>
+          <t>jelly_kelly3</t>
         </is>
       </c>
       <c r="B186" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>maggie.sollberger</t>
+          <t>cks1928</t>
         </is>
       </c>
       <c r="B187" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>daylan.bramer</t>
+          <t>citylightsmke</t>
         </is>
       </c>
       <c r="B188" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>rose.lemerande</t>
+          <t>josie_odermann</t>
         </is>
       </c>
       <c r="B189" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>ju1iasherm</t>
+          <t>emilyyy_ford</t>
         </is>
       </c>
       <c r="B190" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>nhoch_</t>
+          <t>gabs_42705</t>
         </is>
       </c>
       <c r="B191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>chin.nu123557</t>
+          <t>curlyheadrican04</t>
         </is>
       </c>
       <c r="B192" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>mickelsonjohanna</t>
+          <t>chloesynor</t>
         </is>
       </c>
       <c r="B193" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>tyler_mallery5</t>
+          <t>maggiefhs2004</t>
         </is>
       </c>
       <c r="B194" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>kimmg645</t>
+          <t>olivia_levia9348</t>
         </is>
       </c>
       <c r="B195" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>oppermanb_12</t>
+          <t>dylanperez004</t>
         </is>
       </c>
       <c r="B196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>sofiarosesandoval</t>
+          <t>e9coco</t>
         </is>
       </c>
       <c r="B197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>eli_sch2</t>
+          <t>sadly.star</t>
         </is>
       </c>
       <c r="B198" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>citylightsmke</t>
+          <t>husscody</t>
         </is>
       </c>
       <c r="B199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>atostebay</t>
+          <t>sam.schmidt1</t>
         </is>
       </c>
       <c r="B200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>rraaxxyy</t>
+          <t>g.vang8</t>
         </is>
       </c>
       <c r="B201" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>kendall.steffens</t>
+          <t>pjt_prima</t>
         </is>
       </c>
       <c r="B202" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>isa.bellaoakley</t>
+          <t>kayla.bransted</t>
         </is>
       </c>
       <c r="B203" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>hannahmoss05</t>
+          <t>sara.dobrzynski</t>
         </is>
       </c>
       <c r="B204" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>mke_pdt</t>
+          <t>_.sushi_16</t>
         </is>
       </c>
       <c r="B205" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>6ng.t36_</t>
+          <t>bgonz2k</t>
         </is>
       </c>
       <c r="B206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>3xclusively_</t>
+          <t>uwmgoodvibes</t>
         </is>
       </c>
       <c r="B207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>kate.perry16</t>
+          <t>mke_parties_</t>
         </is>
       </c>
       <c r="B208" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>leahsodemann</t>
+          <t>jammehblack12</t>
         </is>
       </c>
       <c r="B209" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>anthonyyoungdzszaqiiae</t>
+          <t>thicklikecoldgrits.bri</t>
         </is>
       </c>
       <c r="B210" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>k.eggers35</t>
+          <t>pugh.izzy</t>
         </is>
       </c>
       <c r="B211" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>_xmayyy</t>
+          <t>cloeynievnap</t>
         </is>
       </c>
       <c r="B212" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>emotional_lightskin7</t>
+          <t>rion.zeneli</t>
         </is>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>diegoditzler</t>
+          <t>megan.osness</t>
         </is>
       </c>
       <c r="B214" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>anthony.28.junkel</t>
+          <t>nathan_gingey_</t>
         </is>
       </c>
       <c r="B215" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>breeneauu</t>
+          <t>_julia.jurewicz_</t>
         </is>
       </c>
       <c r="B216" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>v.cobani5</t>
+          <t>ftsux799</t>
         </is>
       </c>
       <c r="B217" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>lemmjessie</t>
+          <t>annacollins831</t>
         </is>
       </c>
       <c r="B218" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>hadassahwarner</t>
+          <t>joey_k.742</t>
         </is>
       </c>
       <c r="B219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>annamichal22</t>
+          <t>kookycrazybob</t>
         </is>
       </c>
       <c r="B220" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>mad4noww</t>
+          <t>vc.rsb</t>
         </is>
       </c>
       <c r="B221" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>dorian_____kemptr.pc</t>
+          <t>mickelsonjohanna</t>
         </is>
       </c>
       <c r="B222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>saad24jama</t>
+          <t>maggie.sollberger</t>
         </is>
       </c>
       <c r="B223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>karishmad_999</t>
+          <t>black._bussness_</t>
         </is>
       </c>
       <c r="B224" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>ketcham.linda</t>
+          <t>anthony.soto_</t>
         </is>
       </c>
       <c r="B225" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>aryalyons_a.t</t>
+          <t>m_decker722</t>
         </is>
       </c>
       <c r="B226" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>greer_wckc</t>
+          <t>joebamminn</t>
         </is>
       </c>
       <c r="B227" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>midnight_sunrise9</t>
+          <t>madss1012</t>
         </is>
       </c>
       <c r="B228" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>williamteale</t>
+          <t>izzyeseatz</t>
         </is>
       </c>
       <c r="B229" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>strygina.s</t>
+          <t>ava.lazzz</t>
         </is>
       </c>
       <c r="B230" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>dondorbudonfdg</t>
+          <t>ethan_cad</t>
         </is>
       </c>
       <c r="B231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>hayor_sunshine</t>
+          <t>carrilllo.ana</t>
         </is>
       </c>
       <c r="B232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>bryan_flaco09</t>
+          <t>ayeitsslilss</t>
         </is>
       </c>
       <c r="B233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>v_santiago04</t>
+          <t>its.aleek</t>
         </is>
       </c>
       <c r="B234" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>soli.sanchezz</t>
+          <t>mikayla_kurtz</t>
         </is>
       </c>
       <c r="B235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>jonathanalex77</t>
+          <t>jtbennett_72</t>
         </is>
       </c>
       <c r="B236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>414kyra</t>
+          <t>414_bryan_</t>
         </is>
       </c>
       <c r="B237" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>v.with.a.k</t>
+          <t>vibew_.jay</t>
         </is>
       </c>
       <c r="B238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>sandrayoungqijsshaogp</t>
+          <t>arianadogs5</t>
         </is>
       </c>
       <c r="B239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>kaylacimone_</t>
+          <t>lizettegarciaaaa</t>
         </is>
       </c>
       <c r="B240" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>violetharrison_</t>
+          <t>kna_her</t>
         </is>
       </c>
       <c r="B241" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>duhhitmj</t>
+          <t>al_hussein_exclusive_</t>
         </is>
       </c>
       <c r="B242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>_julia.jurewicz_</t>
+          <t>jaaky.y</t>
         </is>
       </c>
       <c r="B243" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>paytonnschmidt</t>
+          <t>xoxo.sarina4</t>
         </is>
       </c>
       <c r="B244" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>rachelrae57</t>
+          <t>brockgorzelanczyk_</t>
         </is>
       </c>
       <c r="B245" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>gracie.flicek</t>
+          <t>rahulcolorsss</t>
         </is>
       </c>
       <c r="B246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>c._house</t>
+          <t>rraaxxyy</t>
         </is>
       </c>
       <c r="B247" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>dorothyrobertsakbsvlastj</t>
+          <t>jjadajackson</t>
         </is>
       </c>
       <c r="B248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>kookycrazybob</t>
+          <t>yoseb_brewer</t>
         </is>
       </c>
       <c r="B249" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>sadly.star</t>
+          <t>atony2223</t>
         </is>
       </c>
       <c r="B250" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>laneydill16</t>
+          <t>maggie_meisel</t>
         </is>
       </c>
       <c r="B251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>amoryhenry40.v</t>
+          <t>emily_haseman</t>
         </is>
       </c>
       <c r="B252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>lifeofjack20</t>
+          <t>julius.638</t>
         </is>
       </c>
       <c r="B253" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>man.man504</t>
+          <t>zakaria_21_7</t>
         </is>
       </c>
       <c r="B254" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>jelly_kelly3</t>
+          <t>noragillham</t>
         </is>
       </c>
       <c r="B255" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>pamela1.0</t>
+          <t>_.jareck</t>
         </is>
       </c>
       <c r="B256" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>steelie_stried</t>
+          <t>mr.pool65</t>
         </is>
       </c>
       <c r="B257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>dg90605630</t>
+          <t>ketcham.linda</t>
         </is>
       </c>
       <c r="B258" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>uwmgoodvibes</t>
+          <t>luann.mcconnell</t>
         </is>
       </c>
       <c r="B259" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>kaykluggrant</t>
+          <t>alli.esteve</t>
         </is>
       </c>
       <c r="B260" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>moertel20</t>
+          <t>savymall04</t>
         </is>
       </c>
       <c r="B261" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>keegin1028</t>
+          <t>alevqz_613</t>
         </is>
       </c>
       <c r="B262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>havendobsonaj._</t>
+          <t>liz.nuernberger</t>
         </is>
       </c>
       <c r="B263" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>yung.wavy</t>
+          <t>lucasdrube</t>
         </is>
       </c>
       <c r="B264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>3l_cheif</t>
+          <t>emmatarazona7890</t>
         </is>
       </c>
       <c r="B265" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>gwenjj08</t>
+          <t>spideyost</t>
         </is>
       </c>
       <c r="B266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>naomi.b.888</t>
+          <t>kexn_ne</t>
         </is>
       </c>
       <c r="B267" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>kikoskatie</t>
+          <t>kcalkinss</t>
         </is>
       </c>
       <c r="B268" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>olivia_faulkner333</t>
+          <t>djbggood</t>
         </is>
       </c>
       <c r="B269" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>i0rdyn</t>
+          <t>bea_dramm</t>
         </is>
       </c>
       <c r="B270" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>xiodiaz10</t>
+          <t>dlongworth_</t>
         </is>
       </c>
       <c r="B271" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>dmyuvyy</t>
+          <t>that_lifted5.9</t>
         </is>
       </c>
       <c r="B272" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>noahstev_</t>
+          <t>rencantdosolfege</t>
         </is>
       </c>
       <c r="B273" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>gage_tomchek</t>
+          <t>a.redmond74</t>
         </is>
       </c>
       <c r="B274" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>daannagarcia</t>
+          <t>amyah_joy_</t>
         </is>
       </c>
       <c r="B275" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>sswauwm</t>
+          <t>ju1iasherm</t>
         </is>
       </c>
       <c r="B276" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>odam_robert</t>
+          <t>sethkiekhaefer</t>
         </is>
       </c>
       <c r="B277" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>dancelexi18</t>
+          <t>whatsthelgb_tea</t>
         </is>
       </c>
       <c r="B278" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>bobbythefish007</t>
+          <t>skyyy._lar</t>
         </is>
       </c>
       <c r="B279" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>sawsan_atary</t>
+          <t>ianvaldez26</t>
         </is>
       </c>
       <c r="B280" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>chanphungn</t>
+          <t>laylow._eli7</t>
         </is>
       </c>
       <c r="B281" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>brookemaerz</t>
+          <t>hannahmoss05</t>
         </is>
       </c>
       <c r="B282" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>liam._neary</t>
+          <t>daniel.m024</t>
         </is>
       </c>
       <c r="B283" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>ianvaldez26</t>
+          <t>mysteryc_real</t>
         </is>
       </c>
       <c r="B284" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>angelinarose1122023</t>
+          <t>bobbythefish007</t>
         </is>
       </c>
       <c r="B285" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>_camrynthompson</t>
+          <t>jonathanalex77</t>
         </is>
       </c>
       <c r="B286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>yanaamir._</t>
+          <t>skellybabyatuwm</t>
         </is>
       </c>
       <c r="B287" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>a.redmond74</t>
+          <t>iam.reese._</t>
         </is>
       </c>
       <c r="B288" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>bakerhoward__djox</t>
+          <t>carla_fede3</t>
         </is>
       </c>
       <c r="B289" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>downtosocial</t>
+          <t>quinn.daczka</t>
         </is>
       </c>
       <c r="B290" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>julius.638</t>
+          <t>sawyer_hellmann</t>
         </is>
       </c>
       <c r="B291" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>tinyfish06</t>
+          <t>chrisraywi</t>
         </is>
       </c>
       <c r="B292" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>_zachblank</t>
+          <t>maniclete</t>
         </is>
       </c>
       <c r="B293" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>lizettegarciaaaa</t>
+          <t>pearlz4m3</t>
         </is>
       </c>
       <c r="B294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>iamdjkb</t>
+          <t>jsenn3422</t>
         </is>
       </c>
       <c r="B295" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>meredith_frost_</t>
+          <t>rosewoznicki</t>
         </is>
       </c>
       <c r="B296" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>joya.202196zqz</t>
+          <t>cnkpcxygpwunkpc</t>
         </is>
       </c>
       <c r="B297" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>_drewfraser_.f</t>
+          <t>chanphungn</t>
         </is>
       </c>
       <c r="B298" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>chrisraywi</t>
+          <t>sweeyahsweeyah</t>
         </is>
       </c>
       <c r="B299" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>owen.nixon24</t>
+          <t>andy_conchi</t>
         </is>
       </c>
       <c r="B300" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>madd.exe_dart</t>
+          <t>sp1vey</t>
         </is>
       </c>
       <c r="B301" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t>jwest6235</t>
+          <t>renataporz</t>
         </is>
       </c>
       <c r="B302" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t>olivia.marriie</t>
+          <t>kerrisashlee</t>
         </is>
       </c>
       <c r="B303" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
         <is>
-          <t>riordanda240</t>
+          <t>_itskim005</t>
         </is>
       </c>
       <c r="B304" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>anafloress88</t>
+          <t>akhil.sabbavarapu</t>
         </is>
       </c>
       <c r="B305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t>amyah_joy_</t>
+          <t>breakingandentering1</t>
         </is>
       </c>
       <c r="B306" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
         <is>
-          <t>liamyee14</t>
+          <t>chad.steffens_</t>
         </is>
       </c>
       <c r="B307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
         <is>
-          <t>ayalajr.aurelio</t>
+          <t>revi8336282</t>
         </is>
       </c>
       <c r="B308" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>juan_otwtfyb</t>
+          <t>imdeuceee</t>
         </is>
       </c>
       <c r="B309" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
         <is>
-          <t>vrcli_</t>
+          <t>myagoetsch_</t>
         </is>
       </c>
       <c r="B310" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
         <is>
-          <t>lydia.muellerr</t>
+          <t>is3_bellawiyclif</t>
         </is>
       </c>
       <c r="B311" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t>renataporz</t>
+          <t>itz.vida_</t>
         </is>
       </c>
       <c r="B312" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
         <is>
-          <t>ally.030</t>
+          <t>th3alchemist_</t>
         </is>
       </c>
       <c r="B313" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
         <is>
-          <t>olivia.mayrand</t>
+          <t>madeline.jamess</t>
         </is>
       </c>
       <c r="B314" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t>madolla23</t>
+          <t>nate.2324</t>
         </is>
       </c>
       <c r="B315" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t>madison.foth</t>
+          <t>kaylamakenna</t>
         </is>
       </c>
       <c r="B316" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t>anthonymitchellfcmqcpjbbw</t>
+          <t>_rebekah_renae_</t>
         </is>
       </c>
       <c r="B317" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t>anthony.soto_</t>
+          <t>mz.shiestyy</t>
         </is>
       </c>
       <c r="B318" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t>corbynnavarro</t>
+          <t>claremcneil_</t>
         </is>
       </c>
       <c r="B319" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t>margaret_suring</t>
+          <t>sammie.wammies</t>
         </is>
       </c>
       <c r="B320" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t>giogarciapaz</t>
+          <t>mandrew2005</t>
         </is>
       </c>
       <c r="B321" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t>malika_robinson_</t>
+          <t>ava.passante24</t>
         </is>
       </c>
       <c r="B322" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
         <is>
-          <t>sash_11_m</t>
+          <t>lplouffe57</t>
         </is>
       </c>
       <c r="B323" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t>tiaurmann</t>
+          <t>megansb04</t>
         </is>
       </c>
       <c r="B324" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t>sofireee3</t>
+          <t>keegin1028</t>
         </is>
       </c>
       <c r="B325" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t>ava_cado_1620</t>
+          <t>sawsan_atary</t>
         </is>
       </c>
       <c r="B326" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t>kcalkinss</t>
+          <t>mercent_dogs_rescue</t>
         </is>
       </c>
       <c r="B327" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t>meleeza_rachel</t>
+          <t>ally.030</t>
         </is>
       </c>
       <c r="B328" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
         <is>
-          <t>ke.ke3957</t>
+          <t>jsmithroscoe</t>
         </is>
       </c>
       <c r="B329" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t>oliiverrg</t>
+          <t>jillianbaumgart</t>
         </is>
       </c>
       <c r="B330" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t>augustgunn_1</t>
+          <t>violetharrison_</t>
         </is>
       </c>
       <c r="B331" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t>laliia70</t>
+          <t>oliiverrg</t>
         </is>
       </c>
       <c r="B332" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
         <is>
-          <t>brockgorzelanczyk_</t>
+          <t>414kyra</t>
         </is>
       </c>
       <c r="B333" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t>alli.esteve</t>
+          <t>sodik__g</t>
         </is>
       </c>
       <c r="B334" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
         <is>
-          <t>ava.passante24</t>
+          <t>madelynreh</t>
         </is>
       </c>
       <c r="B335" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t>skooberflonk</t>
+          <t>joey.koeppen</t>
         </is>
       </c>
       <c r="B336" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t>a.marcelo414</t>
+          <t>mbinkyy</t>
         </is>
       </c>
       <c r="B337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t>nahisprettyokay</t>
+          <t>trevor.vandenheuvel</t>
         </is>
       </c>
       <c r="B338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
         <is>
-          <t>janae.brii</t>
+          <t>iwfl0130</t>
         </is>
       </c>
       <c r="B339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t>moussa_cama10</t>
+          <t>bbhbigreese</t>
         </is>
       </c>
       <c r="B340" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t>taylor_vanroy</t>
+          <t>chloeariellee</t>
         </is>
       </c>
       <c r="B341" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t>imjuliarady</t>
+          <t>annahellmannn</t>
         </is>
       </c>
       <c r="B342" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t>idah2246</t>
+          <t>margaret_suring</t>
         </is>
       </c>
       <c r="B343" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t>joey.koeppen</t>
+          <t>budruffino</t>
         </is>
       </c>
       <c r="B344" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t>luann.mcconnell</t>
+          <t>maddyheinritz</t>
         </is>
       </c>
       <c r="B345" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t>laura.goba</t>
+          <t>gs.phpxd</t>
         </is>
       </c>
       <c r="B346" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t>kas_jatta</t>
+          <t>makaylalewitzke</t>
         </is>
       </c>
       <c r="B347" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t>alyssa_amo_</t>
+          <t>gwenjj08</t>
         </is>
       </c>
       <c r="B348" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t>leo_parkkkk</t>
+          <t>laylam.ousseini</t>
         </is>
       </c>
       <c r="B349" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t>adler.pauls</t>
+          <t>coltonczubs</t>
         </is>
       </c>
       <c r="B350" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t>lewisville34</t>
+          <t>madd.exe_dart</t>
         </is>
       </c>
       <c r="B351" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t>saxophonicz</t>
+          <t>brookemaerz</t>
         </is>
       </c>
       <c r="B352" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t>curlyheadrican04</t>
+          <t>the.gabrieltg</t>
         </is>
       </c>
       <c r="B353" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t>pattypesos</t>
+          <t>kaylacimone_</t>
         </is>
       </c>
       <c r="B354" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t>l_klotz66</t>
+          <t>isaac_glenn12</t>
         </is>
       </c>
       <c r="B355" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t>ava.lazzz</t>
+          <t>ktdaniels11</t>
         </is>
       </c>
       <c r="B356" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
         <is>
-          <t>mug.u.tea</t>
+          <t>quinn_pitz_4</t>
         </is>
       </c>
       <c r="B357" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t>budruffino</t>
+          <t>marcus_p414</t>
         </is>
       </c>
       <c r="B358" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t>kateastrophe23</t>
+          <t>urmomjoke69</t>
         </is>
       </c>
       <c r="B359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t>isaacschofield8</t>
+          <t>ellar4u3n</t>
         </is>
       </c>
       <c r="B360" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t>ksmith_1018</t>
+          <t>giamattolfa</t>
         </is>
       </c>
       <c r="B361" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
         <is>
-          <t>graysonhaman</t>
+          <t>mariverifi3d</t>
         </is>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
         <is>
-          <t>al_hussein_exclusive_</t>
+          <t>j_cavallo7</t>
         </is>
       </c>
       <c r="B363" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t>charles___albert</t>
+          <t>rafe.munz</t>
         </is>
       </c>
       <c r="B364" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t>gbrielgonzalez34</t>
+          <t>josephvallejo24</t>
         </is>
       </c>
       <c r="B365" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t>jerseerae</t>
+          <t>laurenalburg</t>
         </is>
       </c>
       <c r="B366" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>dia.savard</t>
+          <t>jakehas23</t>
         </is>
       </c>
       <c r="B367" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>th3alchemist_</t>
+          <t>karleighconradt</t>
         </is>
       </c>
       <c r="B368" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>houldini.man</t>
+          <t>lemmjessie</t>
         </is>
       </c>
       <c r="B369" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>gowwthicgurlldp</t>
+          <t>nicholas.koome.7796</t>
         </is>
       </c>
       <c r="B370" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>kian_schaub</t>
+          <t>ari.annaaaa._</t>
         </is>
       </c>
       <c r="B371" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>ahoo_hoo</t>
+          <t>misha_feldman</t>
         </is>
       </c>
       <c r="B372" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>they.luv_trinnn</t>
+          <t>marissa.abernathey</t>
         </is>
       </c>
       <c r="B373" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>ahujagaur</t>
+          <t>ava_cado_1620</t>
         </is>
       </c>
       <c r="B374" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>megan.osness</t>
+          <t>needhammen25</t>
         </is>
       </c>
       <c r="B375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>cornm.aze</t>
+          <t>nmnavel</t>
         </is>
       </c>
       <c r="B376" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>nico23gagliano</t>
+          <t>sophia.bonifas</t>
         </is>
       </c>
       <c r="B377" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>abi.heiges</t>
+          <t>sheluvv_nell</t>
         </is>
       </c>
       <c r="B378" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>zaymnnnnn</t>
+          <t>maddie_mathwig</t>
         </is>
       </c>
       <c r="B379" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>trans_tre_uwu</t>
+          <t>your_majesty_ramon</t>
         </is>
       </c>
       <c r="B380" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>ryan_mcook</t>
+          <t>cerra_dogs_shelter</t>
         </is>
       </c>
       <c r="B381" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>laylow._eli7</t>
+          <t>o_shay_sr</t>
         </is>
       </c>
       <c r="B382" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>_.sushi_16</t>
+          <t>derrickotw_07</t>
         </is>
       </c>
       <c r="B383" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>nolimitjonny_</t>
+          <t>rio.overflow03</t>
         </is>
       </c>
       <c r="B384" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>ktdaniels11</t>
+          <t>hayor_sunshine</t>
         </is>
       </c>
       <c r="B385" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>x_leoniehanne</t>
+          <t>yytre.yu</t>
         </is>
       </c>
       <c r="B386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>skyyy._lar</t>
+          <t>pattypesos</t>
         </is>
       </c>
       <c r="B387" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>kimberliie</t>
+          <t>fatima.corrah</t>
         </is>
       </c>
       <c r="B388" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>ad_ham____</t>
+          <t>natewaage5</t>
         </is>
       </c>
       <c r="B389" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>runway_mari</t>
+          <t>tyracandler</t>
         </is>
       </c>
       <c r="B390" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>themlia.ccylaepura272</t>
+          <t>_jay.koch_697</t>
         </is>
       </c>
       <c r="B391" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>wi_id_wonders</t>
+          <t>ya_boi_adamcorbs_114</t>
         </is>
       </c>
       <c r="B392" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>madeline.jamess</t>
+          <t>nadiaguys</t>
         </is>
       </c>
       <c r="B393" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>cecejoyabruzzo</t>
+          <t>lifeofjack20</t>
         </is>
       </c>
       <c r="B394" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>joslynlee15</t>
+          <t>atx_brayan18</t>
         </is>
       </c>
       <c r="B395" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>cnkpcxygpwunkpc</t>
+          <t>king_jay.jayy</t>
         </is>
       </c>
       <c r="B396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>josie_odermann</t>
+          <t>serena_v24</t>
         </is>
       </c>
       <c r="B397" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>vc.rsb</t>
+          <t>peyton_vah</t>
         </is>
       </c>
       <c r="B398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>noragillham</t>
+          <t>cole.beimborn</t>
         </is>
       </c>
       <c r="B399" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>alevqz_613</t>
+          <t>bryan_flaco09</t>
         </is>
       </c>
       <c r="B400" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>beim_87</t>
+          <t>paytonnschmidt</t>
         </is>
       </c>
       <c r="B401" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>smoove_ran</t>
+          <t>marisa.xo16</t>
         </is>
       </c>
       <c r="B402" t="b">
@@ -4458,7 +4458,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>sebi_ign</t>
+          <t>blush_asv14</t>
         </is>
       </c>
       <c r="B403" t="b">
@@ -4468,7 +4468,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>athalia.giuffre</t>
+          <t>jesica_garcon</t>
         </is>
       </c>
       <c r="B404" t="b">
@@ -4478,7 +4478,7 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>ms.mohanraj8</t>
+          <t>ryan_mcook</t>
         </is>
       </c>
       <c r="B405" t="b">
@@ -4488,7 +4488,7 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>rafe.munz</t>
+          <t>hazelfrieburg</t>
         </is>
       </c>
       <c r="B406" t="b">
@@ -4498,7 +4498,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>jude_aldahshan</t>
+          <t>d0llverse</t>
         </is>
       </c>
       <c r="B407" t="b">
@@ -4508,7 +4508,7 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>mke.outdoorrec</t>
+          <t>kimmg645</t>
         </is>
       </c>
       <c r="B408" t="b">
@@ -4518,7 +4518,7 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>zseewald1</t>
+          <t>jwest6235</t>
         </is>
       </c>
       <c r="B409" t="b">
@@ -4528,7 +4528,7 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>texask.bju</t>
+          <t>_sreeram2_</t>
         </is>
       </c>
       <c r="B410" t="b">
@@ -4538,7 +4538,7 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>imanite__</t>
+          <t>gracie.flicek</t>
         </is>
       </c>
       <c r="B411" t="b">
@@ -4548,7 +4548,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>tonney.spence</t>
+          <t>braeden5long</t>
         </is>
       </c>
       <c r="B412" t="b">
@@ -4558,7 +4558,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>solowniyah</t>
+          <t>its_natebrown</t>
         </is>
       </c>
       <c r="B413" t="b">
@@ -4568,7 +4568,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>ya_boi_adamcorbs_114</t>
+          <t>isaacschofield8</t>
         </is>
       </c>
       <c r="B414" t="b">
@@ -4578,7 +4578,7 @@
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>naguldaranjxw</t>
+          <t>colin_petschar_sarup</t>
         </is>
       </c>
       <c r="B415" t="b">
@@ -4588,7 +4588,7 @@
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>jillianbaumgart</t>
+          <t>sash_11_m</t>
         </is>
       </c>
       <c r="B416" t="b">
@@ -4598,7 +4598,7 @@
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>kaesin__</t>
+          <t>bina_abazi</t>
         </is>
       </c>
       <c r="B417" t="b">
@@ -4608,7 +4608,7 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>carolyn_esswein</t>
+          <t>cameron_flannick</t>
         </is>
       </c>
       <c r="B418" t="b">
@@ -4618,7 +4618,7 @@
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>peyton_vah</t>
+          <t>cal.fisch</t>
         </is>
       </c>
       <c r="B419" t="b">
@@ -4628,7 +4628,7 @@
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>sammie.wammies</t>
+          <t>maurine_the_writter</t>
         </is>
       </c>
       <c r="B420" t="b">
@@ -4638,7 +4638,7 @@
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>jack_riley8</t>
+          <t>trans_tre_uwu</t>
         </is>
       </c>
       <c r="B421" t="b">
@@ -4648,7 +4648,7 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>mackenzieswan27</t>
+          <t>agentblue_17</t>
         </is>
       </c>
       <c r="B422" t="b">
@@ -4658,7 +4658,7 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>a.usman17</t>
+          <t>tashah._</t>
         </is>
       </c>
       <c r="B423" t="b">
@@ -4668,7 +4668,7 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>madss1012</t>
+          <t>sswauwm</t>
         </is>
       </c>
       <c r="B424" t="b">
@@ -4678,7 +4678,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>rio.overflow03</t>
+          <t>annaholzz</t>
         </is>
       </c>
       <c r="B425" t="b">
@@ -4688,7 +4688,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>dec16_tshiy</t>
+          <t>juan_otwtfyb</t>
         </is>
       </c>
       <c r="B426" t="b">
@@ -4698,7 +4698,7 @@
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>juliaaa.1222</t>
+          <t>augustgunn_1</t>
         </is>
       </c>
       <c r="B427" t="b">
@@ -4708,7 +4708,7 @@
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>jaccarndt</t>
+          <t>laauurreenn.h</t>
         </is>
       </c>
       <c r="B428" t="b">
@@ -4718,7 +4718,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>kyle.juedes</t>
+          <t>y.asmines07</t>
         </is>
       </c>
       <c r="B429" t="b">
@@ -4728,7 +4728,7 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>zan_ankjj</t>
+          <t>marinkfleming</t>
         </is>
       </c>
       <c r="B430" t="b">
@@ -4738,7 +4738,7 @@
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>the1robertmadden</t>
+          <t>nico23gagliano</t>
         </is>
       </c>
       <c r="B431" t="b">
@@ -4748,7 +4748,7 @@
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>ella_wiedl</t>
+          <t>natalie.wooood</t>
         </is>
       </c>
       <c r="B432" t="b">
@@ -4758,7 +4758,7 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>xghtmare_23</t>
+          <t>lajunceau04</t>
         </is>
       </c>
       <c r="B433" t="b">
@@ -4768,7 +4768,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>maddie_mathwig</t>
+          <t>fredjohnsonthefourth</t>
         </is>
       </c>
       <c r="B434" t="b">
@@ -4778,7 +4778,7 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>machokimchiman</t>
+          <t>babyfacee02_</t>
         </is>
       </c>
       <c r="B435" t="b">
@@ -4788,7 +4788,7 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>j_cavallo7</t>
+          <t>kameron_mand</t>
         </is>
       </c>
       <c r="B436" t="b">
@@ -4798,7 +4798,7 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>bhartz___</t>
+          <t>kaylenstienstra</t>
         </is>
       </c>
       <c r="B437" t="b">
@@ -4808,7 +4808,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>annaholzz</t>
+          <t>linah_lucas32</t>
         </is>
       </c>
       <c r="B438" t="b">
@@ -4818,7 +4818,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>__jayelyn</t>
+          <t>sixwafflecats</t>
         </is>
       </c>
       <c r="B439" t="b">
@@ -4828,7 +4828,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>_real_cameron_</t>
+          <t>martinez18_____</t>
         </is>
       </c>
       <c r="B440" t="b">
@@ -4838,7 +4838,7 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>loren_fitzpatrick19</t>
+          <t>bella.carmona10</t>
         </is>
       </c>
       <c r="B441" t="b">
@@ -4848,7 +4848,7 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>mikayla_kurtz</t>
+          <t>hyohyo123_</t>
         </is>
       </c>
       <c r="B442" t="b">
@@ -4858,7 +4858,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>jesica_garcon</t>
+          <t>minna.leighh</t>
         </is>
       </c>
       <c r="B443" t="b">
@@ -4868,7 +4868,7 @@
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>_rebekah_renae_</t>
+          <t>cici_ttu</t>
         </is>
       </c>
       <c r="B444" t="b">
@@ -4878,7 +4878,7 @@
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>kaylas.locsss</t>
+          <t>a.jackson_6</t>
         </is>
       </c>
       <c r="B445" t="b">
@@ -4888,7 +4888,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>reallorihouse</t>
+          <t>saad24jama</t>
         </is>
       </c>
       <c r="B446" t="b">
@@ -4898,7 +4898,7 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>mayaa.gibbs</t>
+          <t>cecejoyabruzzo</t>
         </is>
       </c>
       <c r="B447" t="b">
@@ -4908,7 +4908,7 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>kaliayah_terry</t>
+          <t>dap.dom</t>
         </is>
       </c>
       <c r="B448" t="b">
@@ -4918,7 +4918,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>babyfacee02_</t>
+          <t>gavin.rehberg</t>
         </is>
       </c>
       <c r="B449" t="b">
@@ -4928,7 +4928,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>kristyy1975</t>
+          <t>jonesmaya11</t>
         </is>
       </c>
       <c r="B450" t="b">
@@ -4938,7 +4938,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>jennarualo</t>
+          <t>saxophonicz</t>
         </is>
       </c>
       <c r="B451" t="b">
@@ -4948,7 +4948,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>claremcneil_</t>
+          <t>odam_robert</t>
         </is>
       </c>
       <c r="B452" t="b">
@@ -4958,7 +4958,7 @@
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>maggiefhs2004</t>
+          <t>lidiaperez811</t>
         </is>
       </c>
       <c r="B453" t="b">
@@ -4968,7 +4968,7 @@
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>livgracecieslak</t>
+          <t>kocos.nia</t>
         </is>
       </c>
       <c r="B454" t="b">
@@ -4978,7 +4978,7 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>hazelfrieburg</t>
+          <t>laneydill16</t>
         </is>
       </c>
       <c r="B455" t="b">
@@ -4988,7 +4988,7 @@
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>revi8336282</t>
+          <t>zseewald1</t>
         </is>
       </c>
       <c r="B456" t="b">
@@ -4998,7 +4998,7 @@
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>manish_dewa08741ulo</t>
+          <t>3l_cheif</t>
         </is>
       </c>
       <c r="B457" t="b">
@@ -5008,7 +5008,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>djbggood</t>
+          <t>avellanavarro</t>
         </is>
       </c>
       <c r="B458" t="b">
@@ -5018,7 +5018,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>alexisguerrerooo</t>
+          <t>liamyee14</t>
         </is>
       </c>
       <c r="B459" t="b">
@@ -5028,7 +5028,7 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>_.treasureee.ee</t>
+          <t>evatotev</t>
         </is>
       </c>
       <c r="B460" t="b">
@@ -5038,7 +5038,7 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>the_nooch_05</t>
+          <t>nadia_amber_blue25</t>
         </is>
       </c>
       <c r="B461" t="b">
@@ -5048,7 +5048,7 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>misha_feldman</t>
+          <t>pencilsandpens01</t>
         </is>
       </c>
       <c r="B462" t="b">
@@ -5058,7 +5058,7 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>lidiaperez811</t>
+          <t>i0rdyn</t>
         </is>
       </c>
       <c r="B463" t="b">
@@ -5068,7 +5068,7 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>megansb04</t>
+          <t>excellent_writters1</t>
         </is>
       </c>
       <c r="B464" t="b">
@@ -5078,7 +5078,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>calebmuas</t>
+          <t>gage_tomchek</t>
         </is>
       </c>
       <c r="B465" t="b">
@@ -5088,7 +5088,7 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>natewaage5</t>
+          <t>jax_attacks_4</t>
         </is>
       </c>
       <c r="B466" t="b">
@@ -5098,7 +5098,7 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>nadia_amber_blue25</t>
+          <t>smoove_ran</t>
         </is>
       </c>
       <c r="B467" t="b">
@@ -5108,7 +5108,7 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>positivelyayla</t>
+          <t>mayaa.gibbs</t>
         </is>
       </c>
       <c r="B468" t="b">
@@ -5118,7 +5118,7 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>cal.fisch</t>
+          <t>weirdobella_13</t>
         </is>
       </c>
       <c r="B469" t="b">
@@ -5128,7 +5128,7 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>sawyer_hellmann</t>
+          <t>amelia_arndt_sarup_</t>
         </is>
       </c>
       <c r="B470" t="b">
@@ -5138,7 +5138,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>cntrl.adrian</t>
+          <t>salhab_hamza</t>
         </is>
       </c>
       <c r="B471" t="b">
@@ -5148,7 +5148,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>excellent_writters1</t>
+          <t>karmen.raee</t>
         </is>
       </c>
       <c r="B472" t="b">
@@ -5158,7 +5158,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>juyounglee_03</t>
+          <t>froggee_evie</t>
         </is>
       </c>
       <c r="B473" t="b">
@@ -5168,7 +5168,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>jjadajackson</t>
+          <t>jennarualo</t>
         </is>
       </c>
       <c r="B474" t="b">
@@ -5178,7 +5178,7 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>djmax_theteacher</t>
+          <t>daylan.bramer</t>
         </is>
       </c>
       <c r="B475" t="b">
@@ -5188,7 +5188,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>jtbennett_72</t>
+          <t>save_animal_rescue_home</t>
         </is>
       </c>
       <c r="B476" t="b">
@@ -5198,7 +5198,7 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>asianboi_cam</t>
+          <t>chernombah1992</t>
         </is>
       </c>
       <c r="B477" t="b">
@@ -5208,7 +5208,7 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>nmnavel</t>
+          <t>siri.hyatt</t>
         </is>
       </c>
       <c r="B478" t="b">
@@ -5218,7 +5218,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>charlottee4898</t>
+          <t>duhhitmj</t>
         </is>
       </c>
       <c r="B479" t="b">
@@ -5228,7 +5228,7 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>nemova6715</t>
+          <t>xio_diazzzz</t>
         </is>
       </c>
       <c r="B480" t="b">
@@ -5238,630 +5238,10 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>qasimomer77</t>
+          <t>loren_fitzpatrick19</t>
         </is>
       </c>
       <c r="B481" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>ethn.m_</t>
-        </is>
-      </c>
-      <c r="B482" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>_thiago_7234</t>
-        </is>
-      </c>
-      <c r="B483" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>ocarmona9</t>
-        </is>
-      </c>
-      <c r="B484" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>fabergrant</t>
-        </is>
-      </c>
-      <c r="B485" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>gs.phpxd</t>
-        </is>
-      </c>
-      <c r="B486" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>anzhenelia82</t>
-        </is>
-      </c>
-      <c r="B487" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>yoseb_brewer</t>
-        </is>
-      </c>
-      <c r="B488" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>lifesanartpiece</t>
-        </is>
-      </c>
-      <c r="B489" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>briannamorelli1</t>
-        </is>
-      </c>
-      <c r="B490" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>414_bryan_</t>
-        </is>
-      </c>
-      <c r="B491" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>haekkuuna_mattaetta</t>
-        </is>
-      </c>
-      <c r="B492" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>nickhogan72</t>
-        </is>
-      </c>
-      <c r="B493" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>_0maxywaxy0_</t>
-        </is>
-      </c>
-      <c r="B494" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="495">
-      <c r="A495" t="inlineStr">
-        <is>
-          <t>zahara_dessert444</t>
-        </is>
-      </c>
-      <c r="B495" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="496">
-      <c r="A496" t="inlineStr">
-        <is>
-          <t>josephvallejo24</t>
-        </is>
-      </c>
-      <c r="B496" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="497">
-      <c r="A497" t="inlineStr">
-        <is>
-          <t>alinavenuslina</t>
-        </is>
-      </c>
-      <c r="B497" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="498">
-      <c r="A498" t="inlineStr">
-        <is>
-          <t>shay.mia21</t>
-        </is>
-      </c>
-      <c r="B498" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" t="inlineStr">
-        <is>
-          <t>madeematzski</t>
-        </is>
-      </c>
-      <c r="B499" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="500">
-      <c r="A500" t="inlineStr">
-        <is>
-          <t>zacharykoeferl</t>
-        </is>
-      </c>
-      <c r="B500" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="501">
-      <c r="A501" t="inlineStr">
-        <is>
-          <t>dlongworth_</t>
-        </is>
-      </c>
-      <c r="B501" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="502">
-      <c r="A502" t="inlineStr">
-        <is>
-          <t>lauren_pinske</t>
-        </is>
-      </c>
-      <c r="B502" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="503">
-      <c r="A503" t="inlineStr">
-        <is>
-          <t>jasonjacksonmdsbhrkdee</t>
-        </is>
-      </c>
-      <c r="B503" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="504">
-      <c r="A504" t="inlineStr">
-        <is>
-          <t>kaelyn.92304</t>
-        </is>
-      </c>
-      <c r="B504" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="505">
-      <c r="A505" t="inlineStr">
-        <is>
-          <t>littlerunner1234</t>
-        </is>
-      </c>
-      <c r="B505" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="506">
-      <c r="A506" t="inlineStr">
-        <is>
-          <t>ethan_cad</t>
-        </is>
-      </c>
-      <c r="B506" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="507">
-      <c r="A507" t="inlineStr">
-        <is>
-          <t>ponak.saneiku3b1177</t>
-        </is>
-      </c>
-      <c r="B507" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="508">
-      <c r="A508" t="inlineStr">
-        <is>
-          <t>414cdub</t>
-        </is>
-      </c>
-      <c r="B508" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="509">
-      <c r="A509" t="inlineStr">
-        <is>
-          <t>sp1vey</t>
-        </is>
-      </c>
-      <c r="B509" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="510">
-      <c r="A510" t="inlineStr">
-        <is>
-          <t>harperfahey</t>
-        </is>
-      </c>
-      <c r="B510" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="511">
-      <c r="A511" t="inlineStr">
-        <is>
-          <t>vinniee.p</t>
-        </is>
-      </c>
-      <c r="B511" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="512">
-      <c r="A512" t="inlineStr">
-        <is>
-          <t>julian.joycedo.u</t>
-        </is>
-      </c>
-      <c r="B512" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="513">
-      <c r="A513" t="inlineStr">
-        <is>
-          <t>sophia.bonifas</t>
-        </is>
-      </c>
-      <c r="B513" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="514">
-      <c r="A514" t="inlineStr">
-        <is>
-          <t>jsmithroscoe</t>
-        </is>
-      </c>
-      <c r="B514" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="515">
-      <c r="A515" t="inlineStr">
-        <is>
-          <t>marisa.xo16</t>
-        </is>
-      </c>
-      <c r="B515" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="516">
-      <c r="A516" t="inlineStr">
-        <is>
-          <t>rencantdosolfege</t>
-        </is>
-      </c>
-      <c r="B516" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="517">
-      <c r="A517" t="inlineStr">
-        <is>
-          <t>andy_conchi</t>
-        </is>
-      </c>
-      <c r="B517" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="518">
-      <c r="A518" t="inlineStr">
-        <is>
-          <t>hyohyo123_</t>
-        </is>
-      </c>
-      <c r="B518" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="519">
-      <c r="A519" t="inlineStr">
-        <is>
-          <t>_aneesahernandez</t>
-        </is>
-      </c>
-      <c r="B519" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="520">
-      <c r="A520" t="inlineStr">
-        <is>
-          <t>kocos.nia</t>
-        </is>
-      </c>
-      <c r="B520" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="521">
-      <c r="A521" t="inlineStr">
-        <is>
-          <t>kerrisashlee</t>
-        </is>
-      </c>
-      <c r="B521" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="522">
-      <c r="A522" t="inlineStr">
-        <is>
-          <t>poet.bn3515</t>
-        </is>
-      </c>
-      <c r="B522" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="523">
-      <c r="A523" t="inlineStr">
-        <is>
-          <t>marcus_p414</t>
-        </is>
-      </c>
-      <c r="B523" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="524">
-      <c r="A524" t="inlineStr">
-        <is>
-          <t>kanielscott1</t>
-        </is>
-      </c>
-      <c r="B524" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="525">
-      <c r="A525" t="inlineStr">
-        <is>
-          <t>el_ciancaglini</t>
-        </is>
-      </c>
-      <c r="B525" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="526">
-      <c r="A526" t="inlineStr">
-        <is>
-          <t>rosenbergjosiah</t>
-        </is>
-      </c>
-      <c r="B526" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="527">
-      <c r="A527" t="inlineStr">
-        <is>
-          <t>mandrew2005</t>
-        </is>
-      </c>
-      <c r="B527" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="528">
-      <c r="A528" t="inlineStr">
-        <is>
-          <t>tamy.huy</t>
-        </is>
-      </c>
-      <c r="B528" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="529">
-      <c r="A529" t="inlineStr">
-        <is>
-          <t>zakaria_21_7</t>
-        </is>
-      </c>
-      <c r="B529" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="530">
-      <c r="A530" t="inlineStr">
-        <is>
-          <t>kara.loeffelholz</t>
-        </is>
-      </c>
-      <c r="B530" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="531">
-      <c r="A531" t="inlineStr">
-        <is>
-          <t>drew_dederich</t>
-        </is>
-      </c>
-      <c r="B531" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="532">
-      <c r="A532" t="inlineStr">
-        <is>
-          <t>alexander.maggit</t>
-        </is>
-      </c>
-      <c r="B532" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="533">
-      <c r="A533" t="inlineStr">
-        <is>
-          <t>nancymitchell2015535</t>
-        </is>
-      </c>
-      <c r="B533" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="534">
-      <c r="A534" t="inlineStr">
-        <is>
-          <t>eddootw</t>
-        </is>
-      </c>
-      <c r="B534" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="535">
-      <c r="A535" t="inlineStr">
-        <is>
-          <t>immisolc</t>
-        </is>
-      </c>
-      <c r="B535" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="536">
-      <c r="A536" t="inlineStr">
-        <is>
-          <t>ty._smithh</t>
-        </is>
-      </c>
-      <c r="B536" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="537">
-      <c r="A537" t="inlineStr">
-        <is>
-          <t>braeden5long</t>
-        </is>
-      </c>
-      <c r="B537" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="538">
-      <c r="A538" t="inlineStr">
-        <is>
-          <t>maggie_meisel</t>
-        </is>
-      </c>
-      <c r="B538" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="539">
-      <c r="A539" t="inlineStr">
-        <is>
-          <t>the.gabrieltg</t>
-        </is>
-      </c>
-      <c r="B539" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="540">
-      <c r="A540" t="inlineStr">
-        <is>
-          <t>the0nly.niahhhh</t>
-        </is>
-      </c>
-      <c r="B540" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="541">
-      <c r="A541" t="inlineStr">
-        <is>
-          <t>cmlammers1</t>
-        </is>
-      </c>
-      <c r="B541" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="542">
-      <c r="A542" t="inlineStr">
-        <is>
-          <t>jonesmaya11</t>
-        </is>
-      </c>
-      <c r="B542" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="543">
-      <c r="A543" t="inlineStr">
-        <is>
-          <t>_.yannap</t>
-        </is>
-      </c>
-      <c r="B543" t="b">
         <v>0</v>
       </c>
     </row>
